--- a/Nowcasts/2025Q4/tables/nowcasts_2025Q4_Nr10_Np1_Nj1.xlsx
+++ b/Nowcasts/2025Q4/tables/nowcasts_2025Q4_Nr10_Np1_Nj1.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>Row</t>
   </si>
@@ -109,6 +109,57 @@
   </si>
   <si>
     <t>2025-11-15</t>
+  </si>
+  <si>
+    <t>Prognose</t>
+  </si>
+  <si>
+    <t>surveys</t>
+  </si>
+  <si>
+    <t>production</t>
+  </si>
+  <si>
+    <t>orders</t>
+  </si>
+  <si>
+    <t>turnover</t>
+  </si>
+  <si>
+    <t>financial</t>
+  </si>
+  <si>
+    <t>labor market</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>national accounts</t>
+  </si>
+  <si>
+    <t>Revision</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>2025-09-30</t>
+  </si>
+  <si>
+    <t>2025-10-15</t>
+  </si>
+  <si>
+    <t>2025-10-30</t>
+  </si>
+  <si>
+    <t>2025-11-15</t>
+  </si>
+  <si>
+    <t>2025-11-30</t>
+  </si>
+  <si>
+    <t>2025-12-15</t>
   </si>
   <si>
     <t>Prognose</t>
@@ -188,59 +239,59 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.37890625" customWidth="true"/>
-    <col min="2" max="2" width="14.24609375" customWidth="true"/>
-    <col min="3" max="3" width="15.24609375" customWidth="true"/>
-    <col min="4" max="4" width="14.24609375" customWidth="true"/>
-    <col min="5" max="5" width="16.24609375" customWidth="true"/>
+    <col min="2" max="2" width="15.24609375" customWidth="true"/>
+    <col min="3" max="3" width="12.64453125" customWidth="true"/>
+    <col min="4" max="4" width="13.64453125" customWidth="true"/>
+    <col min="5" max="5" width="15.24609375" customWidth="true"/>
     <col min="6" max="6" width="16.24609375" customWidth="true"/>
     <col min="7" max="7" width="15.24609375" customWidth="true"/>
-    <col min="8" max="8" width="16.24609375" customWidth="true"/>
+    <col min="8" max="8" width="14.64453125" customWidth="true"/>
     <col min="9" max="9" width="15.24609375" customWidth="true"/>
     <col min="10" max="10" width="15.046875" customWidth="true"/>
-    <col min="11" max="11" width="15.64453125" customWidth="true"/>
+    <col min="11" max="11" width="15.24609375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="B2" s="0">
-        <v>0.31457735837656514</v>
+        <v>0.18201472957523543</v>
       </c>
       <c r="C2" s="0">
         <v>0</v>
@@ -272,177 +323,177 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="B3" s="0">
-        <v>0.33812461522318632</v>
+        <v>-0.0077796957234532171</v>
       </c>
       <c r="C3" s="0">
         <v>0</v>
       </c>
       <c r="D3" s="0">
-        <v>0.014499035577364839</v>
+        <v>-0.13731607003573348</v>
       </c>
       <c r="E3" s="0">
-        <v>-0.003332949933606168</v>
+        <v>-0.0010269355771293362</v>
       </c>
       <c r="F3" s="0">
-        <v>0.00098590598546280904</v>
+        <v>-0.058213559516154201</v>
       </c>
       <c r="G3" s="0">
-        <v>0.0087902338423083079</v>
+        <v>-0.0041618651594084125</v>
       </c>
       <c r="H3" s="0">
-        <v>0.00060329336589900887</v>
+        <v>0.0046968351830979846</v>
       </c>
       <c r="I3" s="0">
-        <v>0.0013894533879193296</v>
+        <v>0.00994892413207356</v>
       </c>
       <c r="J3" s="0">
         <v>0</v>
       </c>
       <c r="K3" s="0">
-        <v>0.0006122846212730515</v>
+        <v>-0.0037217543254347563</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="B4" s="0">
-        <v>0.26100235499556829</v>
+        <v>0.31335783826266123</v>
       </c>
       <c r="C4" s="0">
-        <v>-0.079806658095540481</v>
+        <v>0.31042936550722683</v>
       </c>
       <c r="D4" s="0">
         <v>0</v>
       </c>
       <c r="E4" s="0">
-        <v>-0.00033854524628488148</v>
+        <v>0.00390840899504462</v>
       </c>
       <c r="F4" s="0">
-        <v>0.00083336655425908697</v>
+        <v>-0.00090818720680401139</v>
       </c>
       <c r="G4" s="0">
         <v>0</v>
       </c>
       <c r="H4" s="0">
-        <v>-6.0827543836517946e-05</v>
+        <v>-0.0064840294696297922</v>
       </c>
       <c r="I4" s="0">
-        <v>-0.00089063052797232721</v>
+        <v>0.0039987027797821657</v>
       </c>
       <c r="J4" s="0">
-        <v>-0.0020752452299906076</v>
+        <v>0.0048852699127391926</v>
       </c>
       <c r="K4" s="0">
-        <v>0.0052162798617477191</v>
+        <v>0.0053080034677554511</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="B5" s="0">
-        <v>0.26824466430882277</v>
+        <v>0.22456938744352054</v>
       </c>
       <c r="C5" s="0">
         <v>0</v>
       </c>
       <c r="D5" s="0">
-        <v>-0.050268613806127099</v>
+        <v>0.022701119160084184</v>
       </c>
       <c r="E5" s="0">
-        <v>0.0063650667842678416</v>
+        <v>-0.019855868308993215</v>
       </c>
       <c r="F5" s="0">
-        <v>-0.010576397068380504</v>
+        <v>-0.12988573619647351</v>
       </c>
       <c r="G5" s="0">
-        <v>0.033087873746679111</v>
+        <v>0.0046492773317126177</v>
       </c>
       <c r="H5" s="0">
-        <v>0.0033362329104432917</v>
+        <v>-0.0093729624604552107</v>
       </c>
       <c r="I5" s="0">
-        <v>0.018863058438525825</v>
+        <v>-0.001152855602577683</v>
       </c>
       <c r="J5" s="0">
         <v>0</v>
       </c>
       <c r="K5" s="0">
-        <v>0.0064350883078460042</v>
+        <v>0.044128575257562141</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="B6" s="0">
-        <v>0.28813453958322505</v>
+        <v>0.096758462987737076</v>
       </c>
       <c r="C6" s="0">
-        <v>-0.0093826255041045189</v>
+        <v>-0.12367153300952669</v>
       </c>
       <c r="D6" s="0">
         <v>0</v>
       </c>
       <c r="E6" s="0">
-        <v>-0.00044681774587792855</v>
+        <v>0.013003926878311528</v>
       </c>
       <c r="F6" s="0">
-        <v>-8.2308282219630544e-05</v>
+        <v>-0.002136037627538953</v>
       </c>
       <c r="G6" s="0">
         <v>0</v>
       </c>
       <c r="H6" s="0">
-        <v>3.5212718105086341e-05</v>
+        <v>-0.012872768102337617</v>
       </c>
       <c r="I6" s="0">
-        <v>0.043298918819162348</v>
+        <v>-0.0070515935068884202</v>
       </c>
       <c r="J6" s="0">
         <v>0</v>
       </c>
       <c r="K6" s="0">
-        <v>-0.013532504730663086</v>
+        <v>0.0049170809121966697</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="B7" s="0">
-        <v>0.31247580735087255</v>
+        <v>0.23666039592996746</v>
       </c>
       <c r="C7" s="0">
         <v>0</v>
       </c>
       <c r="D7" s="0">
-        <v>-0.069209052774400676</v>
+        <v>0.23153964084314976</v>
       </c>
       <c r="E7" s="0">
-        <v>0.044912402360629648</v>
+        <v>0.040707114548775909</v>
       </c>
       <c r="F7" s="0">
-        <v>0.0092276019794727531</v>
+        <v>-0.084224464390363893</v>
       </c>
       <c r="G7" s="0">
-        <v>0.033559445540999704</v>
+        <v>-0.0077093521046831624</v>
       </c>
       <c r="H7" s="0">
-        <v>-0.00048136438236894144</v>
+        <v>0</v>
       </c>
       <c r="I7" s="0">
-        <v>0.008639254471256021</v>
+        <v>0</v>
       </c>
       <c r="J7" s="0">
         <v>0</v>
       </c>
       <c r="K7" s="0">
-        <v>-0.0023070194279410372</v>
+        <v>-0.040411005954648221</v>
       </c>
     </row>
     <row r="8">
